--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Pdgfb-Pdgfra.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Pdgfb-Pdgfra.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>46.6771675</v>
+        <v>58.5237865</v>
       </c>
       <c r="H2">
-        <v>93.35433499999999</v>
+        <v>117.047573</v>
       </c>
       <c r="I2">
-        <v>0.4898929723558808</v>
+        <v>0.9267085491139034</v>
       </c>
       <c r="J2">
-        <v>0.3939504270570364</v>
+        <v>0.9111602159194784</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.5025675000000001</v>
+        <v>4.4557</v>
       </c>
       <c r="N2">
-        <v>1.005135</v>
+        <v>8.9114</v>
       </c>
       <c r="O2">
-        <v>0.002717219326525538</v>
+        <v>0.02359296635235565</v>
       </c>
       <c r="P2">
-        <v>0.001814075008651434</v>
+        <v>0.0158997862915566</v>
       </c>
       <c r="Q2">
-        <v>23.45842737755625</v>
+        <v>260.76443550805</v>
       </c>
       <c r="R2">
-        <v>93.83370951022501</v>
+        <v>1043.0577420322</v>
       </c>
       <c r="S2">
-        <v>0.00133114665241444</v>
+        <v>0.02186380361768464</v>
       </c>
       <c r="T2">
-        <v>0.0007146556243717295</v>
+        <v>0.01448725271048828</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>46.6771675</v>
+        <v>58.5237865</v>
       </c>
       <c r="H3">
-        <v>93.35433499999999</v>
+        <v>117.047573</v>
       </c>
       <c r="I3">
-        <v>0.4898929723558808</v>
+        <v>0.9267085491139034</v>
       </c>
       <c r="J3">
-        <v>0.3939504270570364</v>
+        <v>0.9111602159194784</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>548.139267</v>
       </c>
       <c r="O3">
-        <v>0.9878703589865653</v>
+        <v>0.9674672354314614</v>
       </c>
       <c r="P3">
-        <v>0.9892857631315353</v>
+        <v>0.9779941651491894</v>
       </c>
       <c r="Q3">
-        <v>8528.529459695406</v>
+        <v>10693.0618113915</v>
       </c>
       <c r="R3">
-        <v>51171.17675817244</v>
+        <v>64158.37086834899</v>
       </c>
       <c r="S3">
-        <v>0.4839507464661994</v>
+        <v>0.8965601580619288</v>
       </c>
       <c r="T3">
-        <v>0.3897295488671144</v>
+        <v>0.8911093746853254</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>46.6771675</v>
+        <v>58.5237865</v>
       </c>
       <c r="H4">
-        <v>93.35433499999999</v>
+        <v>117.047573</v>
       </c>
       <c r="I4">
-        <v>0.4898929723558808</v>
+        <v>0.9267085491139034</v>
       </c>
       <c r="J4">
-        <v>0.3939504270570364</v>
+        <v>0.9111602159194784</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.291303</v>
+        <v>0.03688933333333334</v>
       </c>
       <c r="N4">
-        <v>0.582606</v>
+        <v>0.110668</v>
       </c>
       <c r="O4">
-        <v>0.001574980756763756</v>
+        <v>0.0001953293085472911</v>
       </c>
       <c r="P4">
-        <v>0.001051491575251461</v>
+        <v>0.0001974546703451743</v>
       </c>
       <c r="Q4">
-        <v>13.5971989242525</v>
+        <v>2.158903468127333</v>
       </c>
       <c r="R4">
-        <v>54.38879569700999</v>
+        <v>12.953420808764</v>
       </c>
       <c r="S4">
-        <v>0.0007715720043343107</v>
+        <v>0.0001810133401232821</v>
       </c>
       <c r="T4">
-        <v>0.0004142355551171889</v>
+        <v>0.0001799128400660185</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>46.6771675</v>
+        <v>58.5237865</v>
       </c>
       <c r="H5">
-        <v>93.35433499999999</v>
+        <v>117.047573</v>
       </c>
       <c r="I5">
-        <v>0.4898929723558808</v>
+        <v>0.9267085491139034</v>
       </c>
       <c r="J5">
-        <v>0.3939504270570364</v>
+        <v>0.9111602159194784</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.297988666666667</v>
+        <v>1.642759</v>
       </c>
       <c r="N5">
-        <v>3.893966</v>
+        <v>3.285518</v>
       </c>
       <c r="O5">
-        <v>0.007017803361096332</v>
+        <v>0.008698421754613059</v>
       </c>
       <c r="P5">
-        <v>0.007027858352498311</v>
+        <v>0.005862045700682549</v>
       </c>
       <c r="Q5">
-        <v>60.58643440710166</v>
+        <v>96.14047698695349</v>
       </c>
       <c r="R5">
-        <v>363.51860644261</v>
+        <v>384.5619079478139</v>
       </c>
       <c r="S5">
-        <v>0.003437972547976573</v>
+        <v>0.008060901803798282</v>
       </c>
       <c r="T5">
-        <v>0.00276862779926307</v>
+        <v>0.005341262826363762</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>46.6771675</v>
+        <v>58.5237865</v>
       </c>
       <c r="H6">
-        <v>93.35433499999999</v>
+        <v>117.047573</v>
       </c>
       <c r="I6">
-        <v>0.4898929723558808</v>
+        <v>0.9267085491139034</v>
       </c>
       <c r="J6">
-        <v>0.3939504270570364</v>
+        <v>0.9111602159194784</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.1515973333333333</v>
+        <v>0.008696333333333334</v>
       </c>
       <c r="N6">
-        <v>0.454792</v>
+        <v>0.026089</v>
       </c>
       <c r="O6">
-        <v>0.000819637569049068</v>
+        <v>4.604715302246609E-05</v>
       </c>
       <c r="P6">
-        <v>0.0008208119320634572</v>
+        <v>4.654818822636402E-05</v>
       </c>
       <c r="Q6">
-        <v>7.076134120553332</v>
+        <v>0.5089423553328334</v>
       </c>
       <c r="R6">
-        <v>42.45680472332</v>
+        <v>3.053654131997</v>
       </c>
       <c r="S6">
-        <v>0.0004015346849559964</v>
+        <v>4.267229036827545E-05</v>
       </c>
       <c r="T6">
-        <v>0.0003233592111699101</v>
+        <v>4.241285723499436E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.03902533333333333</v>
+        <v>0.03902533333333334</v>
       </c>
       <c r="H7">
         <v>0.117076</v>
       </c>
       <c r="I7">
-        <v>0.0004095843335790609</v>
+        <v>0.0006179557440634808</v>
       </c>
       <c r="J7">
-        <v>0.0004940546167259356</v>
+        <v>0.0009113815067228165</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.5025675000000001</v>
+        <v>4.4557</v>
       </c>
       <c r="N7">
-        <v>1.005135</v>
+        <v>8.9114</v>
       </c>
       <c r="O7">
-        <v>0.002717219326525538</v>
+        <v>0.02359296635235565</v>
       </c>
       <c r="P7">
-        <v>0.001814075008651434</v>
+        <v>0.0158997862915566</v>
       </c>
       <c r="Q7">
-        <v>0.01961286421</v>
+        <v>0.1738851777333333</v>
       </c>
       <c r="R7">
-        <v>0.11767718526</v>
+        <v>1.0433110664</v>
       </c>
       <c r="S7">
-        <v>1.112930467043107E-06</v>
+        <v>1.45794090769346E-05</v>
       </c>
       <c r="T7">
-        <v>8.962521331113826E-07</v>
+        <v>1.449077118696964E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.03902533333333333</v>
+        <v>0.03902533333333334</v>
       </c>
       <c r="H8">
         <v>0.117076</v>
       </c>
       <c r="I8">
-        <v>0.0004095843335790609</v>
+        <v>0.0006179557440634808</v>
       </c>
       <c r="J8">
-        <v>0.0004940546167259356</v>
+        <v>0.0009113815067228165</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -939,22 +939,22 @@
         <v>548.139267</v>
       </c>
       <c r="O8">
-        <v>0.9878703589865653</v>
+        <v>0.9674672354314614</v>
       </c>
       <c r="P8">
-        <v>0.9892857631315353</v>
+        <v>0.9779941651491894</v>
       </c>
       <c r="Q8">
-        <v>7.130439202587999</v>
+        <v>7.130439202588001</v>
       </c>
       <c r="R8">
-        <v>64.173952823292</v>
+        <v>64.17395282329201</v>
       </c>
       <c r="S8">
-        <v>0.00040461622264802</v>
+        <v>0.0005978519353280875</v>
       </c>
       <c r="T8">
-        <v>0.0004887611985363754</v>
+        <v>0.0008913257957997913</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -977,46 +977,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.03902533333333333</v>
+        <v>0.03902533333333334</v>
       </c>
       <c r="H9">
         <v>0.117076</v>
       </c>
       <c r="I9">
-        <v>0.0004095843335790609</v>
+        <v>0.0006179557440634808</v>
       </c>
       <c r="J9">
-        <v>0.0004940546167259356</v>
+        <v>0.0009113815067228165</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.291303</v>
+        <v>0.03688933333333334</v>
       </c>
       <c r="N9">
-        <v>0.582606</v>
+        <v>0.110668</v>
       </c>
       <c r="O9">
-        <v>0.001574980756763756</v>
+        <v>0.0001953293085472911</v>
       </c>
       <c r="P9">
-        <v>0.001051491575251461</v>
+        <v>0.0001974546703451743</v>
       </c>
       <c r="Q9">
-        <v>0.011368196676</v>
+        <v>0.001439618529777778</v>
       </c>
       <c r="R9">
-        <v>0.06820918005599999</v>
+        <v>0.012956566768</v>
       </c>
       <c r="S9">
-        <v>6.450874436589277E-07</v>
+        <v>1.207048682007465E-07</v>
       </c>
       <c r="T9">
-        <v>5.194942672014108E-07</v>
+        <v>1.79956534968642E-07</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1039,46 +1039,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.03902533333333333</v>
+        <v>0.03902533333333334</v>
       </c>
       <c r="H10">
         <v>0.117076</v>
       </c>
       <c r="I10">
-        <v>0.0004095843335790609</v>
+        <v>0.0006179557440634808</v>
       </c>
       <c r="J10">
-        <v>0.0004940546167259356</v>
+        <v>0.0009113815067228165</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.297988666666667</v>
+        <v>1.642759</v>
       </c>
       <c r="N10">
-        <v>3.893966</v>
+        <v>3.285518</v>
       </c>
       <c r="O10">
-        <v>0.007017803361096332</v>
+        <v>0.008698421754613059</v>
       </c>
       <c r="P10">
-        <v>0.007027858352498311</v>
+        <v>0.005862045700682549</v>
       </c>
       <c r="Q10">
-        <v>0.05065444037955555</v>
+        <v>0.06410921756133334</v>
       </c>
       <c r="R10">
-        <v>0.455889963416</v>
+        <v>0.384655305368</v>
       </c>
       <c r="S10">
-        <v>2.874382312843534E-06</v>
+        <v>5.375239687549881E-06</v>
       </c>
       <c r="T10">
-        <v>3.472145864747718E-06</v>
+        <v>5.34256004316607E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1101,46 +1101,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.03902533333333333</v>
+        <v>0.03902533333333334</v>
       </c>
       <c r="H11">
         <v>0.117076</v>
       </c>
       <c r="I11">
-        <v>0.0004095843335790609</v>
+        <v>0.0006179557440634808</v>
       </c>
       <c r="J11">
-        <v>0.0004940546167259356</v>
+        <v>0.0009113815067228165</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.1515973333333333</v>
+        <v>0.008696333333333334</v>
       </c>
       <c r="N11">
-        <v>0.454792</v>
+        <v>0.026089</v>
       </c>
       <c r="O11">
-        <v>0.000819637569049068</v>
+        <v>4.604715302246609E-05</v>
       </c>
       <c r="P11">
-        <v>0.0008208119320634572</v>
+        <v>4.654818822636402E-05</v>
       </c>
       <c r="Q11">
-        <v>0.005916136465777777</v>
+        <v>0.0003393773071111111</v>
       </c>
       <c r="R11">
-        <v>0.053245228192</v>
+        <v>0.003054395764000001</v>
       </c>
       <c r="S11">
-        <v>3.35710707495324E-07</v>
+        <v>2.845510270800299E-08</v>
       </c>
       <c r="T11">
-        <v>4.05525924499686E-07</v>
+        <v>4.242315792096091E-08</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.214287333333333</v>
+        <v>0.4240023333333334</v>
       </c>
       <c r="H12">
-        <v>12.642862</v>
+        <v>1.272007</v>
       </c>
       <c r="I12">
-        <v>0.04423039911512208</v>
+        <v>0.006713963853727117</v>
       </c>
       <c r="J12">
-        <v>0.0533522185565692</v>
+        <v>0.009901975265827067</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.5025675000000001</v>
+        <v>4.4557</v>
       </c>
       <c r="N12">
-        <v>1.005135</v>
+        <v>8.9114</v>
       </c>
       <c r="O12">
-        <v>0.002717219326525538</v>
+        <v>0.02359296635235565</v>
       </c>
       <c r="P12">
-        <v>0.001814075008651434</v>
+        <v>0.0158997862915566</v>
       </c>
       <c r="Q12">
-        <v>2.117963849395</v>
+        <v>1.889227196633334</v>
       </c>
       <c r="R12">
-        <v>12.70778309637</v>
+        <v>11.3353631798</v>
       </c>
       <c r="S12">
-        <v>0.0001201836952955478</v>
+        <v>0.0001584023232919159</v>
       </c>
       <c r="T12">
-        <v>9.678492633958149E-05</v>
+        <v>0.0001574392905909298</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.214287333333333</v>
+        <v>0.4240023333333334</v>
       </c>
       <c r="H13">
-        <v>12.642862</v>
+        <v>1.272007</v>
       </c>
       <c r="I13">
-        <v>0.04423039911512208</v>
+        <v>0.006713963853727117</v>
       </c>
       <c r="J13">
-        <v>0.0533522185565692</v>
+        <v>0.009901975265827067</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1249,22 +1249,22 @@
         <v>548.139267</v>
       </c>
       <c r="O13">
-        <v>0.9878703589865653</v>
+        <v>0.9674672354314614</v>
       </c>
       <c r="P13">
-        <v>0.9892857631315353</v>
+        <v>0.9779941651491894</v>
       </c>
       <c r="Q13">
-        <v>770.0054566069059</v>
+        <v>77.47077606654101</v>
       </c>
       <c r="R13">
-        <v>6930.049109462154</v>
+        <v>697.2369845988691</v>
       </c>
       <c r="S13">
-        <v>0.04369390025197471</v>
+        <v>0.006495540048352134</v>
       </c>
       <c r="T13">
-        <v>0.05278059024949602</v>
+        <v>0.009684074033430466</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.214287333333333</v>
+        <v>0.4240023333333334</v>
       </c>
       <c r="H14">
-        <v>12.642862</v>
+        <v>1.272007</v>
       </c>
       <c r="I14">
-        <v>0.04423039911512208</v>
+        <v>0.006713963853727117</v>
       </c>
       <c r="J14">
-        <v>0.0533522185565692</v>
+        <v>0.009901975265827067</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.291303</v>
+        <v>0.03688933333333334</v>
       </c>
       <c r="N14">
-        <v>0.582606</v>
+        <v>0.110668</v>
       </c>
       <c r="O14">
-        <v>0.001574980756763756</v>
+        <v>0.0001953293085472911</v>
       </c>
       <c r="P14">
-        <v>0.001051491575251461</v>
+        <v>0.0001974546703451743</v>
       </c>
       <c r="Q14">
-        <v>1.227634543062</v>
+        <v>0.01564116340844445</v>
       </c>
       <c r="R14">
-        <v>7.365807258371999</v>
+        <v>0.140770470676</v>
       </c>
       <c r="S14">
-        <v>6.966202747029793E-05</v>
+        <v>1.311433917160024E-06</v>
       </c>
       <c r="T14">
-        <v>5.609940833320717E-05</v>
+        <v>1.955191261879954E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,46 +1349,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.214287333333333</v>
+        <v>0.4240023333333334</v>
       </c>
       <c r="H15">
-        <v>12.642862</v>
+        <v>1.272007</v>
       </c>
       <c r="I15">
-        <v>0.04423039911512208</v>
+        <v>0.006713963853727117</v>
       </c>
       <c r="J15">
-        <v>0.0533522185565692</v>
+        <v>0.009901975265827067</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.297988666666667</v>
+        <v>1.642759</v>
       </c>
       <c r="N15">
-        <v>3.893966</v>
+        <v>3.285518</v>
       </c>
       <c r="O15">
-        <v>0.007017803361096332</v>
+        <v>0.008698421754613059</v>
       </c>
       <c r="P15">
-        <v>0.007027858352498311</v>
+        <v>0.005862045700682549</v>
       </c>
       <c r="Q15">
-        <v>5.470097196743556</v>
+        <v>0.6965336491043334</v>
       </c>
       <c r="R15">
-        <v>49.230874770692</v>
+        <v>4.179201894626</v>
       </c>
       <c r="S15">
-        <v>0.000310400243572736</v>
+        <v>5.840088924494568E-05</v>
       </c>
       <c r="T15">
-        <v>0.0003749518348071003</v>
+        <v>5.80458315353065E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.214287333333333</v>
+        <v>0.4240023333333334</v>
       </c>
       <c r="H16">
-        <v>12.642862</v>
+        <v>1.272007</v>
       </c>
       <c r="I16">
-        <v>0.04423039911512208</v>
+        <v>0.006713963853727117</v>
       </c>
       <c r="J16">
-        <v>0.0533522185565692</v>
+        <v>0.009901975265827067</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.1515973333333333</v>
+        <v>0.008696333333333334</v>
       </c>
       <c r="N16">
-        <v>0.454792</v>
+        <v>0.026089</v>
       </c>
       <c r="O16">
-        <v>0.000819637569049068</v>
+        <v>4.604715302246609E-05</v>
       </c>
       <c r="P16">
-        <v>0.0008208119320634572</v>
+        <v>4.654818822636402E-05</v>
       </c>
       <c r="Q16">
-        <v>0.6388747216337778</v>
+        <v>0.003687265624777778</v>
       </c>
       <c r="R16">
-        <v>5.749872494704</v>
+        <v>0.033185390623</v>
       </c>
       <c r="S16">
-        <v>3.625289680878871E-05</v>
+        <v>3.091589209598787E-07</v>
       </c>
       <c r="T16">
-        <v>4.37921375932894E-05</v>
+        <v>4.609190084865192E-07</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.1940915</v>
+        <v>2.4732215</v>
       </c>
       <c r="H17">
-        <v>4.388183</v>
+        <v>4.946443</v>
       </c>
       <c r="I17">
-        <v>0.02302774705761169</v>
+        <v>0.03916280276742367</v>
       </c>
       <c r="J17">
-        <v>0.01851790350019019</v>
+        <v>0.03850572853751861</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.5025675000000001</v>
+        <v>4.4557</v>
       </c>
       <c r="N17">
-        <v>1.005135</v>
+        <v>8.9114</v>
       </c>
       <c r="O17">
-        <v>0.002717219326525538</v>
+        <v>0.02359296635235565</v>
       </c>
       <c r="P17">
-        <v>0.001814075008651434</v>
+        <v>0.0158997862915566</v>
       </c>
       <c r="Q17">
-        <v>1.10267907992625</v>
+        <v>11.01993303755</v>
       </c>
       <c r="R17">
-        <v>4.410716319705</v>
+        <v>44.07973215020001</v>
       </c>
       <c r="S17">
-        <v>6.257143935128408E-05</v>
+        <v>0.0009239666879557672</v>
       </c>
       <c r="T17">
-        <v>3.359286595231394E-05</v>
+        <v>0.0006122328547472384</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.1940915</v>
+        <v>2.4732215</v>
       </c>
       <c r="H18">
-        <v>4.388183</v>
+        <v>4.946443</v>
       </c>
       <c r="I18">
-        <v>0.02302774705761169</v>
+        <v>0.03916280276742367</v>
       </c>
       <c r="J18">
-        <v>0.01851790350019019</v>
+        <v>0.03850572853751861</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1559,22 +1559,22 @@
         <v>548.139267</v>
       </c>
       <c r="O18">
-        <v>0.9878703589865653</v>
+        <v>0.9674672354314614</v>
       </c>
       <c r="P18">
-        <v>0.9892857631315353</v>
+        <v>0.9779941651491894</v>
       </c>
       <c r="Q18">
-        <v>400.8892355136435</v>
+        <v>451.8899400462136</v>
       </c>
       <c r="R18">
-        <v>2405.335413081861</v>
+        <v>2711.339640277281</v>
       </c>
       <c r="S18">
-        <v>0.02274842875245468</v>
+        <v>0.03788872852514696</v>
       </c>
       <c r="T18">
-        <v>0.01831949829578178</v>
+        <v>0.03765837783451183</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.1940915</v>
+        <v>2.4732215</v>
       </c>
       <c r="H19">
-        <v>4.388183</v>
+        <v>4.946443</v>
       </c>
       <c r="I19">
-        <v>0.02302774705761169</v>
+        <v>0.03916280276742367</v>
       </c>
       <c r="J19">
-        <v>0.01851790350019019</v>
+        <v>0.03850572853751861</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.291303</v>
+        <v>0.03688933333333334</v>
       </c>
       <c r="N19">
-        <v>0.582606</v>
+        <v>0.110668</v>
       </c>
       <c r="O19">
-        <v>0.001574980756763756</v>
+        <v>0.0001953293085472911</v>
       </c>
       <c r="P19">
-        <v>0.001051491575251461</v>
+        <v>0.0001974546703451743</v>
       </c>
       <c r="Q19">
-        <v>0.6391454362244999</v>
+        <v>0.09123549232066668</v>
       </c>
       <c r="R19">
-        <v>2.556581744898</v>
+        <v>0.547412953924</v>
       </c>
       <c r="S19">
-        <v>3.62682584873616E-05</v>
+        <v>7.649643185334803E-06</v>
       </c>
       <c r="T19">
-        <v>1.947141952176952E-05</v>
+        <v>7.603135934776508E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.1940915</v>
+        <v>2.4732215</v>
       </c>
       <c r="H20">
-        <v>4.388183</v>
+        <v>4.946443</v>
       </c>
       <c r="I20">
-        <v>0.02302774705761169</v>
+        <v>0.03916280276742367</v>
       </c>
       <c r="J20">
-        <v>0.01851790350019019</v>
+        <v>0.03850572853751861</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.297988666666667</v>
+        <v>1.642759</v>
       </c>
       <c r="N20">
-        <v>3.893966</v>
+        <v>3.285518</v>
       </c>
       <c r="O20">
-        <v>0.007017803361096332</v>
+        <v>0.008698421754613059</v>
       </c>
       <c r="P20">
-        <v>0.007027858352498311</v>
+        <v>0.005862045700682549</v>
       </c>
       <c r="Q20">
-        <v>2.847905900629666</v>
+        <v>4.0629068781185</v>
       </c>
       <c r="R20">
-        <v>17.087435403778</v>
+        <v>16.251627512474</v>
       </c>
       <c r="S20">
-        <v>0.0001616042006993835</v>
+        <v>0.0003406545755637786</v>
       </c>
       <c r="T20">
-        <v>0.0001301412027845693</v>
+        <v>0.0002257223404250103</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1721,46 +1721,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.1940915</v>
+        <v>2.4732215</v>
       </c>
       <c r="H21">
-        <v>4.388183</v>
+        <v>4.946443</v>
       </c>
       <c r="I21">
-        <v>0.02302774705761169</v>
+        <v>0.03916280276742367</v>
       </c>
       <c r="J21">
-        <v>0.01851790350019019</v>
+        <v>0.03850572853751861</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.1515973333333333</v>
+        <v>0.008696333333333334</v>
       </c>
       <c r="N21">
-        <v>0.454792</v>
+        <v>0.026089</v>
       </c>
       <c r="O21">
-        <v>0.000819637569049068</v>
+        <v>4.604715302246609E-05</v>
       </c>
       <c r="P21">
-        <v>0.0008208119320634572</v>
+        <v>4.654818822636402E-05</v>
       </c>
       <c r="Q21">
-        <v>0.3326184204893333</v>
+        <v>0.02150795857116667</v>
       </c>
       <c r="R21">
-        <v>1.995710522936</v>
+        <v>0.129047751427</v>
       </c>
       <c r="S21">
-        <v>1.887440661897767E-05</v>
+        <v>1.803335571820216E-06</v>
       </c>
       <c r="T21">
-        <v>1.519971614975576E-05</v>
+        <v>1.792371899757693E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>36.230025</v>
+        <v>0.5517673333333334</v>
       </c>
       <c r="H22">
-        <v>108.690075</v>
+        <v>1.655302</v>
       </c>
       <c r="I22">
-        <v>0.3802466084896404</v>
+        <v>0.008737088549828895</v>
       </c>
       <c r="J22">
-        <v>0.4586664503915251</v>
+        <v>0.01288574627456773</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.5025675000000001</v>
+        <v>4.4557</v>
       </c>
       <c r="N22">
-        <v>1.005135</v>
+        <v>8.9114</v>
       </c>
       <c r="O22">
-        <v>0.002717219326525538</v>
+        <v>0.02359296635235565</v>
       </c>
       <c r="P22">
-        <v>0.001814075008651434</v>
+        <v>0.0158997862915566</v>
       </c>
       <c r="Q22">
-        <v>18.2080330891875</v>
+        <v>2.458509707133333</v>
       </c>
       <c r="R22">
-        <v>109.248198535125</v>
+        <v>14.7510582428</v>
       </c>
       <c r="S22">
-        <v>0.001033213433433841</v>
+        <v>0.0002061338361736649</v>
       </c>
       <c r="T22">
-        <v>0.0008320553449621285</v>
+        <v>0.0002048806119728486</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>36.230025</v>
+        <v>0.5517673333333334</v>
       </c>
       <c r="H23">
-        <v>108.690075</v>
+        <v>1.655302</v>
       </c>
       <c r="I23">
-        <v>0.3802466084896404</v>
+        <v>0.008737088549828895</v>
       </c>
       <c r="J23">
-        <v>0.4586664503915251</v>
+        <v>0.01288574627456773</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1869,22 +1869,22 @@
         <v>548.139267</v>
       </c>
       <c r="O23">
-        <v>0.9878703589865653</v>
+        <v>0.9674672354314614</v>
       </c>
       <c r="P23">
-        <v>0.9892857631315353</v>
+        <v>0.9779941651491894</v>
       </c>
       <c r="Q23">
-        <v>6619.699782297224</v>
+        <v>100.815113882626</v>
       </c>
       <c r="R23">
-        <v>59577.29804067502</v>
+        <v>907.336024943634</v>
       </c>
       <c r="S23">
-        <v>0.375634353632085</v>
+        <v>0.008452846905022836</v>
       </c>
       <c r="T23">
-        <v>0.4537521893984124</v>
+        <v>0.01260218467012015</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,7 +1898,7 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>36.230025</v>
+        <v>0.5517673333333334</v>
       </c>
       <c r="H24">
-        <v>108.690075</v>
+        <v>1.655302</v>
       </c>
       <c r="I24">
-        <v>0.3802466084896404</v>
+        <v>0.008737088549828895</v>
       </c>
       <c r="J24">
-        <v>0.4586664503915251</v>
+        <v>0.01288574627456773</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.291303</v>
+        <v>0.03688933333333334</v>
       </c>
       <c r="N24">
-        <v>0.582606</v>
+        <v>0.110668</v>
       </c>
       <c r="O24">
-        <v>0.001574980756763756</v>
+        <v>0.0001953293085472911</v>
       </c>
       <c r="P24">
-        <v>0.001051491575251461</v>
+        <v>0.0001974546703451743</v>
       </c>
       <c r="Q24">
-        <v>10.553914972575</v>
+        <v>0.02035432908177778</v>
       </c>
       <c r="R24">
-        <v>63.32348983544999</v>
+        <v>0.183188961736</v>
       </c>
       <c r="S24">
-        <v>0.0005988810911958653</v>
+        <v>1.706609465154532E-06</v>
       </c>
       <c r="T24">
-        <v>0.0004822839084371808</v>
+        <v>2.54435078279633E-06</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,7 +1960,7 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>36.230025</v>
+        <v>0.5517673333333334</v>
       </c>
       <c r="H25">
-        <v>108.690075</v>
+        <v>1.655302</v>
       </c>
       <c r="I25">
-        <v>0.3802466084896404</v>
+        <v>0.008737088549828895</v>
       </c>
       <c r="J25">
-        <v>0.4586664503915251</v>
+        <v>0.01288574627456773</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.297988666666667</v>
+        <v>1.642759</v>
       </c>
       <c r="N25">
-        <v>3.893966</v>
+        <v>3.285518</v>
       </c>
       <c r="O25">
-        <v>0.007017803361096332</v>
+        <v>0.008698421754613059</v>
       </c>
       <c r="P25">
-        <v>0.007027858352498311</v>
+        <v>0.005862045700682549</v>
       </c>
       <c r="Q25">
-        <v>47.02616184305</v>
+        <v>0.9064207527393333</v>
       </c>
       <c r="R25">
-        <v>423.23545658745</v>
+        <v>5.438524516436</v>
       </c>
       <c r="S25">
-        <v>0.00266849592710408</v>
+        <v>7.599888111381232E-05</v>
       </c>
       <c r="T25">
-        <v>0.003223442844394832</v>
+        <v>7.553683354891594E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,7 +2022,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2031,46 +2031,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>36.230025</v>
+        <v>0.5517673333333334</v>
       </c>
       <c r="H26">
-        <v>108.690075</v>
+        <v>1.655302</v>
       </c>
       <c r="I26">
-        <v>0.3802466084896404</v>
+        <v>0.008737088549828895</v>
       </c>
       <c r="J26">
-        <v>0.4586664503915251</v>
+        <v>0.01288574627456773</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>0.1515973333333333</v>
+        <v>0.008696333333333334</v>
       </c>
       <c r="N26">
-        <v>0.454792</v>
+        <v>0.026089</v>
       </c>
       <c r="O26">
-        <v>0.000819637569049068</v>
+        <v>4.604715302246609E-05</v>
       </c>
       <c r="P26">
-        <v>0.0008208119320634572</v>
+        <v>4.654818822636402E-05</v>
       </c>
       <c r="Q26">
-        <v>5.4923751766</v>
+        <v>0.004798352653111112</v>
       </c>
       <c r="R26">
-        <v>49.4313765894</v>
+        <v>0.04318517387800001</v>
       </c>
       <c r="S26">
-        <v>0.0003116644058216015</v>
+        <v>4.023180534248075E-07</v>
       </c>
       <c r="T26">
-        <v>0.0003764788953185555</v>
+        <v>5.998081430257476E-07</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>5.925740333333334</v>
+        <v>1.140508</v>
       </c>
       <c r="H27">
-        <v>17.777221</v>
+        <v>3.421524</v>
       </c>
       <c r="I27">
-        <v>0.06219268864816604</v>
+        <v>0.01805963997105348</v>
       </c>
       <c r="J27">
-        <v>0.07501894587795324</v>
+        <v>0.02663495249588539</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.5025675000000001</v>
+        <v>4.4557</v>
       </c>
       <c r="N27">
-        <v>1.005135</v>
+        <v>8.9114</v>
       </c>
       <c r="O27">
-        <v>0.002717219326525538</v>
+        <v>0.02359296635235565</v>
       </c>
       <c r="P27">
-        <v>0.001814075008651434</v>
+        <v>0.0158997862915566</v>
       </c>
       <c r="Q27">
-        <v>2.978084504972501</v>
+        <v>5.0817614956</v>
       </c>
       <c r="R27">
-        <v>17.868507029835</v>
+        <v>30.4905689736</v>
       </c>
       <c r="S27">
-        <v>0.0001689911755633822</v>
+        <v>0.0004260804781727218</v>
       </c>
       <c r="T27">
-        <v>0.0001360899948925695</v>
+        <v>0.0004234900525703399</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>5.925740333333334</v>
+        <v>1.140508</v>
       </c>
       <c r="H28">
-        <v>17.777221</v>
+        <v>3.421524</v>
       </c>
       <c r="I28">
-        <v>0.06219268864816604</v>
+        <v>0.01805963997105348</v>
       </c>
       <c r="J28">
-        <v>0.07501894587795324</v>
+        <v>0.02663495249588539</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2179,22 +2179,22 @@
         <v>548.139267</v>
       </c>
       <c r="O28">
-        <v>0.9878703589865653</v>
+        <v>0.9674672354314614</v>
       </c>
       <c r="P28">
-        <v>0.9892857631315353</v>
+        <v>0.9779941651491894</v>
       </c>
       <c r="Q28">
-        <v>1082.710320915223</v>
+        <v>208.385739709212</v>
       </c>
       <c r="R28">
-        <v>9744.392888237007</v>
+        <v>1875.471657382908</v>
       </c>
       <c r="S28">
-        <v>0.06143831366120347</v>
+        <v>0.01747210995568262</v>
       </c>
       <c r="T28">
-        <v>0.07421517512219432</v>
+        <v>0.02604882813000175</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2208,7 +2208,7 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -2217,46 +2217,46 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>5.925740333333334</v>
+        <v>1.140508</v>
       </c>
       <c r="H29">
-        <v>17.777221</v>
+        <v>3.421524</v>
       </c>
       <c r="I29">
-        <v>0.06219268864816604</v>
+        <v>0.01805963997105348</v>
       </c>
       <c r="J29">
-        <v>0.07501894587795324</v>
+        <v>0.02663495249588539</v>
       </c>
       <c r="K29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M29">
-        <v>0.291303</v>
+        <v>0.03688933333333334</v>
       </c>
       <c r="N29">
-        <v>0.582606</v>
+        <v>0.110668</v>
       </c>
       <c r="O29">
-        <v>0.001574980756763756</v>
+        <v>0.0001953293085472911</v>
       </c>
       <c r="P29">
-        <v>0.001051491575251461</v>
+        <v>0.0001974546703451743</v>
       </c>
       <c r="Q29">
-        <v>1.726185936321</v>
+        <v>0.04207257978133334</v>
       </c>
       <c r="R29">
-        <v>10.357115617926</v>
+        <v>0.378653218032</v>
       </c>
       <c r="S29">
-        <v>9.795228783226117E-05</v>
+        <v>3.527576988158896E-06</v>
       </c>
       <c r="T29">
-        <v>7.888178957491315E-05</v>
+        <v>5.259195764734428E-06</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2270,7 +2270,7 @@
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -2279,46 +2279,46 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>5.925740333333334</v>
+        <v>1.140508</v>
       </c>
       <c r="H30">
-        <v>17.777221</v>
+        <v>3.421524</v>
       </c>
       <c r="I30">
-        <v>0.06219268864816604</v>
+        <v>0.01805963997105348</v>
       </c>
       <c r="J30">
-        <v>0.07501894587795324</v>
+        <v>0.02663495249588539</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.297988666666667</v>
+        <v>1.642759</v>
       </c>
       <c r="N30">
-        <v>3.893966</v>
+        <v>3.285518</v>
       </c>
       <c r="O30">
-        <v>0.007017803361096332</v>
+        <v>0.008698421754613059</v>
       </c>
       <c r="P30">
-        <v>0.007027858352498311</v>
+        <v>0.005862045700682549</v>
       </c>
       <c r="Q30">
-        <v>7.691543794276223</v>
+        <v>1.873579781572</v>
       </c>
       <c r="R30">
-        <v>69.22389414848601</v>
+        <v>11.241478689432</v>
       </c>
       <c r="S30">
-        <v>0.0004364560594307173</v>
+        <v>0.0001570903652046911</v>
       </c>
       <c r="T30">
-        <v>0.0005272225253839924</v>
+        <v>0.0001561353087663889</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2332,7 +2332,7 @@
         <v>27</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
         <v>3</v>
@@ -2341,46 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>5.925740333333334</v>
+        <v>1.140508</v>
       </c>
       <c r="H31">
-        <v>17.777221</v>
+        <v>3.421524</v>
       </c>
       <c r="I31">
-        <v>0.06219268864816604</v>
+        <v>0.01805963997105348</v>
       </c>
       <c r="J31">
-        <v>0.07501894587795324</v>
+        <v>0.02663495249588539</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M31">
-        <v>0.1515973333333333</v>
+        <v>0.008696333333333334</v>
       </c>
       <c r="N31">
-        <v>0.454792</v>
+        <v>0.026089</v>
       </c>
       <c r="O31">
-        <v>0.000819637569049068</v>
+        <v>4.604715302246609E-05</v>
       </c>
       <c r="P31">
-        <v>0.0008208119320634572</v>
+        <v>4.654818822636402E-05</v>
       </c>
       <c r="Q31">
-        <v>0.8983264325591112</v>
+        <v>0.009918237737333335</v>
       </c>
       <c r="R31">
-        <v>8.084937893032</v>
+        <v>0.08926413963600001</v>
       </c>
       <c r="S31">
-        <v>5.097546413620837E-05</v>
+        <v>8.315950052777445E-07</v>
       </c>
       <c r="T31">
-        <v>6.157644590744673E-05</v>
+        <v>1.239808782178737E-06</v>
       </c>
     </row>
   </sheetData>
